--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H2">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I2">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J2">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.70007466666667</v>
+        <v>32.92864966666667</v>
       </c>
       <c r="N2">
-        <v>131.100224</v>
+        <v>98.785949</v>
       </c>
       <c r="O2">
-        <v>0.8433757073363406</v>
+        <v>0.8913028757746132</v>
       </c>
       <c r="P2">
-        <v>0.8789229579822045</v>
+        <v>0.9086533747458582</v>
       </c>
       <c r="Q2">
-        <v>760.5720063258453</v>
+        <v>744.5241888857248</v>
       </c>
       <c r="R2">
-        <v>6845.148056932609</v>
+        <v>6700.717699971524</v>
       </c>
       <c r="S2">
-        <v>0.0309785572572529</v>
+        <v>0.03879549249237336</v>
       </c>
       <c r="T2">
-        <v>0.03443610599708137</v>
+        <v>0.04357190963218219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H3">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I3">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J3">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.381252</v>
       </c>
       <c r="O3">
-        <v>0.03461792110938802</v>
+        <v>0.04855270847140305</v>
       </c>
       <c r="P3">
-        <v>0.03607702398348041</v>
+        <v>0.04949785713105716</v>
       </c>
       <c r="Q3">
-        <v>31.21908952790934</v>
+        <v>40.55710676515022</v>
       </c>
       <c r="R3">
-        <v>280.971805751184</v>
+        <v>365.013960886352</v>
       </c>
       <c r="S3">
-        <v>0.001271572375022843</v>
+        <v>0.002113340244021638</v>
       </c>
       <c r="T3">
-        <v>0.001413493879835065</v>
+        <v>0.002373530124734639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H4">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I4">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J4">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.010584</v>
+        <v>0.05066733333333334</v>
       </c>
       <c r="N4">
-        <v>0.031752</v>
+        <v>0.152002</v>
       </c>
       <c r="O4">
-        <v>0.0002042625454197812</v>
+        <v>0.001371448278777914</v>
       </c>
       <c r="P4">
-        <v>0.0002128719609346431</v>
+        <v>0.001398145502131279</v>
       </c>
       <c r="Q4">
-        <v>0.184207788576</v>
+        <v>1.145599823705778</v>
       </c>
       <c r="R4">
-        <v>1.657870097184</v>
+        <v>10.310398413352</v>
       </c>
       <c r="S4">
-        <v>7.502894503309881E-06</v>
+        <v>5.969464796886991E-05</v>
       </c>
       <c r="T4">
-        <v>8.340300300473383E-06</v>
+        <v>6.704412393619824E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H5">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I5">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J5">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.2869145</v>
+        <v>2.116331</v>
       </c>
       <c r="N5">
-        <v>12.573829</v>
+        <v>4.232661999999999</v>
       </c>
       <c r="O5">
-        <v>0.1213323090142225</v>
+        <v>0.05728421679861464</v>
       </c>
       <c r="P5">
-        <v>0.08429754458575467</v>
+        <v>0.03893289126025962</v>
       </c>
       <c r="Q5">
-        <v>109.419748394878</v>
+        <v>47.85072078991866</v>
       </c>
       <c r="R5">
-        <v>656.5184903692681</v>
+        <v>287.1043247395119</v>
       </c>
       <c r="S5">
-        <v>0.004456732449435863</v>
+        <v>0.002493394179628026</v>
       </c>
       <c r="T5">
-        <v>0.003302768637780327</v>
+        <v>0.001866916986013583</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H6">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I6">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J6">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.024343</v>
+        <v>0.055001</v>
       </c>
       <c r="N6">
-        <v>0.073029</v>
+        <v>0.165003</v>
       </c>
       <c r="O6">
-        <v>0.0004697999946290375</v>
+        <v>0.001488750676591046</v>
       </c>
       <c r="P6">
-        <v>0.0004896014876258519</v>
+        <v>0.001517731360693724</v>
       </c>
       <c r="Q6">
-        <v>0.423674432852</v>
+        <v>1.243585003558667</v>
       </c>
       <c r="R6">
-        <v>3.813069895668</v>
+        <v>11.192265032028</v>
       </c>
       <c r="S6">
-        <v>1.725651557956089E-05</v>
+        <v>6.480043682851173E-05</v>
       </c>
       <c r="T6">
-        <v>1.918253308904228E-05</v>
+        <v>7.277852647889184E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>178.3379163333333</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H7">
-        <v>535.013749</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I7">
-        <v>0.3763792138794219</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J7">
-        <v>0.4014659877938717</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.70007466666667</v>
+        <v>32.92864966666667</v>
       </c>
       <c r="N7">
-        <v>131.100224</v>
+        <v>98.785949</v>
       </c>
       <c r="O7">
-        <v>0.8433757073363406</v>
+        <v>0.8913028757746132</v>
       </c>
       <c r="P7">
-        <v>0.8789229579822045</v>
+        <v>0.9086533747458582</v>
       </c>
       <c r="Q7">
-        <v>7793.380259664418</v>
+        <v>5872.426769223645</v>
       </c>
       <c r="R7">
-        <v>70140.42233697977</v>
+        <v>52851.84092301281</v>
       </c>
       <c r="S7">
-        <v>0.3174290857322533</v>
+        <v>0.3059990421243337</v>
       </c>
       <c r="T7">
-        <v>0.3528576735210374</v>
+        <v>0.3436729824630232</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>178.3379163333333</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H8">
-        <v>535.013749</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I8">
-        <v>0.3763792138794219</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J8">
-        <v>0.4014659877938717</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>5.381252</v>
       </c>
       <c r="O8">
-        <v>0.03461792110938802</v>
+        <v>0.04855270847140305</v>
       </c>
       <c r="P8">
-        <v>0.03607702398348041</v>
+        <v>0.04949785713105716</v>
       </c>
       <c r="Q8">
-        <v>319.8937563148609</v>
+        <v>319.893756314861</v>
       </c>
       <c r="R8">
         <v>2879.043806833748</v>
       </c>
       <c r="S8">
-        <v>0.01302946593329131</v>
+        <v>0.01666894911775009</v>
       </c>
       <c r="T8">
-        <v>0.01448369807019116</v>
+        <v>0.01872119408626735</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>178.3379163333333</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H9">
-        <v>535.013749</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I9">
-        <v>0.3763792138794219</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J9">
-        <v>0.4014659877938717</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.010584</v>
+        <v>0.05066733333333334</v>
       </c>
       <c r="N9">
-        <v>0.031752</v>
+        <v>0.152002</v>
       </c>
       <c r="O9">
-        <v>0.0002042625454197812</v>
+        <v>0.001371448278777914</v>
       </c>
       <c r="P9">
-        <v>0.0002128719609346431</v>
+        <v>0.001398145502131279</v>
       </c>
       <c r="Q9">
-        <v>1.887528506472</v>
+        <v>9.035906652833113</v>
       </c>
       <c r="R9">
-        <v>16.987756558248</v>
+        <v>81.32315987549801</v>
       </c>
       <c r="S9">
-        <v>7.688017627010696E-05</v>
+        <v>0.0004708409128203342</v>
       </c>
       <c r="T9">
-        <v>8.546085207024497E-05</v>
+        <v>0.0005288098278060218</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>178.3379163333333</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H10">
-        <v>535.013749</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I10">
-        <v>0.3763792138794219</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J10">
-        <v>0.4014659877938717</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.2869145</v>
+        <v>2.116331</v>
       </c>
       <c r="N10">
-        <v>12.573829</v>
+        <v>4.232661999999999</v>
       </c>
       <c r="O10">
-        <v>0.1213323090142225</v>
+        <v>0.05728421679861464</v>
       </c>
       <c r="P10">
-        <v>0.08429754458575467</v>
+        <v>0.03893289126025962</v>
       </c>
       <c r="Q10">
-        <v>1121.19523209582</v>
+        <v>377.4220608116397</v>
       </c>
       <c r="R10">
-        <v>6727.171392574921</v>
+        <v>2264.532364869838</v>
       </c>
       <c r="S10">
-        <v>0.04566695908494815</v>
+        <v>0.01966662056821563</v>
       </c>
       <c r="T10">
-        <v>0.03384259700571794</v>
+        <v>0.01472528824213558</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>178.3379163333333</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H11">
-        <v>535.013749</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I11">
-        <v>0.3763792138794219</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J11">
-        <v>0.4014659877938717</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.024343</v>
+        <v>0.055001</v>
       </c>
       <c r="N11">
-        <v>0.073029</v>
+        <v>0.165003</v>
       </c>
       <c r="O11">
-        <v>0.0004697999946290375</v>
+        <v>0.001488750676591046</v>
       </c>
       <c r="P11">
-        <v>0.0004896014876258519</v>
+        <v>0.001517731360693724</v>
       </c>
       <c r="Q11">
-        <v>4.341279897302333</v>
+        <v>9.808763736249668</v>
       </c>
       <c r="R11">
-        <v>39.07151907572099</v>
+        <v>88.27887362624702</v>
       </c>
       <c r="S11">
-        <v>0.0001768229526590338</v>
+        <v>0.0005111127691615479</v>
       </c>
       <c r="T11">
-        <v>0.0001965583448550617</v>
+        <v>0.000574039868011454</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.61737833333332</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H12">
-        <v>259.852135</v>
+        <v>271.90989</v>
       </c>
       <c r="I12">
-        <v>0.1828045400309692</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J12">
-        <v>0.1949889965502952</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>43.70007466666667</v>
+        <v>32.92864966666667</v>
       </c>
       <c r="N12">
-        <v>131.100224</v>
+        <v>98.785949</v>
       </c>
       <c r="O12">
-        <v>0.8433757073363406</v>
+        <v>0.8913028757746132</v>
       </c>
       <c r="P12">
-        <v>0.8789229579822045</v>
+        <v>0.9086533747458582</v>
       </c>
       <c r="Q12">
-        <v>3785.185900597582</v>
+        <v>2984.54183623729</v>
       </c>
       <c r="R12">
-        <v>34066.67310537824</v>
+        <v>26860.87652613561</v>
       </c>
       <c r="S12">
-        <v>0.154172908252913</v>
+        <v>0.1555178087285621</v>
       </c>
       <c r="T12">
-        <v>0.1713803056219673</v>
+        <v>0.1746648250295574</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.61737833333332</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H13">
-        <v>259.852135</v>
+        <v>271.90989</v>
       </c>
       <c r="I13">
-        <v>0.1828045400309692</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J13">
-        <v>0.1949889965502952</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>5.381252</v>
       </c>
       <c r="O13">
-        <v>0.03461792110938802</v>
+        <v>0.04855270847140305</v>
       </c>
       <c r="P13">
-        <v>0.03607702398348041</v>
+        <v>0.04949785713105716</v>
       </c>
       <c r="Q13">
-        <v>155.3699801303355</v>
+        <v>162.57951548692</v>
       </c>
       <c r="R13">
-        <v>1398.32982117302</v>
+        <v>1463.21563938228</v>
       </c>
       <c r="S13">
-        <v>0.006328313145230056</v>
+        <v>0.008471655409780923</v>
       </c>
       <c r="T13">
-        <v>0.007034622705059779</v>
+        <v>0.009514667303747379</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>86.61737833333332</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H14">
-        <v>259.852135</v>
+        <v>271.90989</v>
       </c>
       <c r="I14">
-        <v>0.1828045400309692</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J14">
-        <v>0.1949889965502952</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.010584</v>
+        <v>0.05066733333333334</v>
       </c>
       <c r="N14">
-        <v>0.031752</v>
+        <v>0.152002</v>
       </c>
       <c r="O14">
-        <v>0.0002042625454197812</v>
+        <v>0.001371448278777914</v>
       </c>
       <c r="P14">
-        <v>0.0002128719609346431</v>
+        <v>0.001398145502131279</v>
       </c>
       <c r="Q14">
-        <v>0.91675833228</v>
+        <v>4.59231634442</v>
       </c>
       <c r="R14">
-        <v>8.25082499052</v>
+        <v>41.33084709978</v>
       </c>
       <c r="S14">
-        <v>3.734012066101806E-05</v>
+        <v>0.0002392953471789687</v>
       </c>
       <c r="T14">
-        <v>4.15076900563397E-05</v>
+        <v>0.0002687568728437563</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>86.61737833333332</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H15">
-        <v>259.852135</v>
+        <v>271.90989</v>
       </c>
       <c r="I15">
-        <v>0.1828045400309692</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J15">
-        <v>0.1949889965502952</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.2869145</v>
+        <v>2.116331</v>
       </c>
       <c r="N15">
-        <v>12.573829</v>
+        <v>4.232661999999999</v>
       </c>
       <c r="O15">
-        <v>0.1213323090142225</v>
+        <v>0.05728421679861464</v>
       </c>
       <c r="P15">
-        <v>0.08429754458575467</v>
+        <v>0.03893289126025962</v>
       </c>
       <c r="Q15">
-        <v>544.556051795819</v>
+        <v>191.81710980453</v>
       </c>
       <c r="R15">
-        <v>3267.336310774915</v>
+        <v>1150.90265882718</v>
       </c>
       <c r="S15">
-        <v>0.02218009694024036</v>
+        <v>0.009995161143747069</v>
       </c>
       <c r="T15">
-        <v>0.01643709363043007</v>
+        <v>0.007483829179383159</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>86.61737833333332</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H16">
-        <v>259.852135</v>
+        <v>271.90989</v>
       </c>
       <c r="I16">
-        <v>0.1828045400309692</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J16">
-        <v>0.1949889965502952</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.024343</v>
+        <v>0.055001</v>
       </c>
       <c r="N16">
-        <v>0.073029</v>
+        <v>0.165003</v>
       </c>
       <c r="O16">
-        <v>0.0004697999946290375</v>
+        <v>0.001488750676591046</v>
       </c>
       <c r="P16">
-        <v>0.0004896014876258519</v>
+        <v>0.001517731360693724</v>
       </c>
       <c r="Q16">
-        <v>2.108526840768333</v>
+        <v>4.985105286630001</v>
       </c>
       <c r="R16">
-        <v>18.976741566915</v>
+        <v>44.86594757967001</v>
       </c>
       <c r="S16">
-        <v>8.588157192471301E-05</v>
+        <v>0.0002597627016129484</v>
       </c>
       <c r="T16">
-        <v>9.546690278169663E-05</v>
+        <v>0.0002917441236946771</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>88.82503149999999</v>
+        <v>143.820236</v>
       </c>
       <c r="H17">
-        <v>177.650063</v>
+        <v>287.640472</v>
       </c>
       <c r="I17">
-        <v>0.1874637554152924</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J17">
-        <v>0.1333058414989229</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.70007466666667</v>
+        <v>32.92864966666667</v>
       </c>
       <c r="N17">
-        <v>131.100224</v>
+        <v>98.785949</v>
       </c>
       <c r="O17">
-        <v>0.8433757073363406</v>
+        <v>0.8913028757746132</v>
       </c>
       <c r="P17">
-        <v>0.8789229579822045</v>
+        <v>0.9086533747458582</v>
       </c>
       <c r="Q17">
-        <v>3881.660508819019</v>
+        <v>4735.806166221321</v>
       </c>
       <c r="R17">
-        <v>23289.96305291411</v>
+        <v>28414.83699732793</v>
       </c>
       <c r="S17">
-        <v>0.158102377323299</v>
+        <v>0.2467722812900773</v>
       </c>
       <c r="T17">
-        <v>0.1171655645265403</v>
+        <v>0.1847695672757593</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>88.82503149999999</v>
+        <v>143.820236</v>
       </c>
       <c r="H18">
-        <v>177.650063</v>
+        <v>287.640472</v>
       </c>
       <c r="I18">
-        <v>0.1874637554152924</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J18">
-        <v>0.1333058414989229</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>5.381252</v>
       </c>
       <c r="O18">
-        <v>0.03461792110938802</v>
+        <v>0.04855270847140305</v>
       </c>
       <c r="P18">
-        <v>0.03607702398348041</v>
+        <v>0.04949785713105716</v>
       </c>
       <c r="Q18">
-        <v>159.3299594698126</v>
+        <v>257.9776442051573</v>
       </c>
       <c r="R18">
-        <v>955.9797568188759</v>
+        <v>1547.865865230944</v>
       </c>
       <c r="S18">
-        <v>0.006489605495836204</v>
+        <v>0.01344263881330726</v>
       </c>
       <c r="T18">
-        <v>0.004809278040894681</v>
+        <v>0.01006511162272495</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>88.82503149999999</v>
+        <v>143.820236</v>
       </c>
       <c r="H19">
-        <v>177.650063</v>
+        <v>287.640472</v>
       </c>
       <c r="I19">
-        <v>0.1874637554152924</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J19">
-        <v>0.1333058414989229</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.010584</v>
+        <v>0.05066733333333334</v>
       </c>
       <c r="N19">
-        <v>0.031752</v>
+        <v>0.152002</v>
       </c>
       <c r="O19">
-        <v>0.0002042625454197812</v>
+        <v>0.001371448278777914</v>
       </c>
       <c r="P19">
-        <v>0.0002128719609346431</v>
+        <v>0.001398145502131279</v>
       </c>
       <c r="Q19">
-        <v>0.9401241333960001</v>
+        <v>7.286987837490667</v>
       </c>
       <c r="R19">
-        <v>5.640744800376</v>
+        <v>43.72192702494399</v>
       </c>
       <c r="S19">
-        <v>3.829182385507893E-05</v>
+        <v>0.0003797086597877835</v>
       </c>
       <c r="T19">
-        <v>2.837707588391845E-05</v>
+        <v>0.0002843050459033397</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>88.82503149999999</v>
+        <v>143.820236</v>
       </c>
       <c r="H20">
-        <v>177.650063</v>
+        <v>287.640472</v>
       </c>
       <c r="I20">
-        <v>0.1874637554152924</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J20">
-        <v>0.1333058414989229</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.2869145</v>
+        <v>2.116331</v>
       </c>
       <c r="N20">
-        <v>12.573829</v>
+        <v>4.232661999999999</v>
       </c>
       <c r="O20">
-        <v>0.1213323090142225</v>
+        <v>0.05728421679861464</v>
       </c>
       <c r="P20">
-        <v>0.08429754458575467</v>
+        <v>0.03893289126025962</v>
       </c>
       <c r="Q20">
-        <v>558.4353785003067</v>
+        <v>304.371223874116</v>
       </c>
       <c r="R20">
-        <v>2233.741514001227</v>
+        <v>1217.484895496464</v>
       </c>
       <c r="S20">
-        <v>0.02274541030101489</v>
+        <v>0.01586010462383402</v>
       </c>
       <c r="T20">
-        <v>0.011237355117297</v>
+        <v>0.00791678506995514</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>88.82503149999999</v>
+        <v>143.820236</v>
       </c>
       <c r="H21">
-        <v>177.650063</v>
+        <v>287.640472</v>
       </c>
       <c r="I21">
-        <v>0.1874637554152924</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J21">
-        <v>0.1333058414989229</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.024343</v>
+        <v>0.055001</v>
       </c>
       <c r="N21">
-        <v>0.073029</v>
+        <v>0.165003</v>
       </c>
       <c r="O21">
-        <v>0.0004697999946290375</v>
+        <v>0.001488750676591046</v>
       </c>
       <c r="P21">
-        <v>0.0004896014876258519</v>
+        <v>0.001517731360693724</v>
       </c>
       <c r="Q21">
-        <v>2.1622677418045</v>
+        <v>7.910256800236</v>
       </c>
       <c r="R21">
-        <v>12.973606450827</v>
+        <v>47.461540801416</v>
       </c>
       <c r="S21">
-        <v>8.807047128724359E-05</v>
+        <v>0.0004121858132851123</v>
       </c>
       <c r="T21">
-        <v>6.526673830708869E-05</v>
+        <v>0.000308622159505722</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>102.6404036666667</v>
+        <v>84.051186</v>
       </c>
       <c r="H22">
-        <v>307.921211</v>
+        <v>252.153558</v>
       </c>
       <c r="I22">
-        <v>0.2166208691825219</v>
+        <v>0.1618061099757246</v>
       </c>
       <c r="J22">
-        <v>0.231059282808824</v>
+        <v>0.1782572924363359</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>43.70007466666667</v>
+        <v>32.92864966666667</v>
       </c>
       <c r="N22">
-        <v>131.100224</v>
+        <v>98.785949</v>
       </c>
       <c r="O22">
-        <v>0.8433757073363406</v>
+        <v>0.8913028757746132</v>
       </c>
       <c r="P22">
-        <v>0.8789229579822045</v>
+        <v>0.9086533747458582</v>
       </c>
       <c r="Q22">
-        <v>4485.39330405014</v>
+        <v>2767.692057861838</v>
       </c>
       <c r="R22">
-        <v>40368.53973645126</v>
+        <v>24909.22852075654</v>
       </c>
       <c r="S22">
-        <v>0.1826927787706223</v>
+        <v>0.1442182511392667</v>
       </c>
       <c r="T22">
-        <v>0.2030833083155784</v>
+        <v>0.1619740903453359</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>102.6404036666667</v>
+        <v>84.051186</v>
       </c>
       <c r="H23">
-        <v>307.921211</v>
+        <v>252.153558</v>
       </c>
       <c r="I23">
-        <v>0.2166208691825219</v>
+        <v>0.1618061099757246</v>
       </c>
       <c r="J23">
-        <v>0.231059282808824</v>
+        <v>0.1782572924363359</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>5.381252</v>
       </c>
       <c r="O23">
-        <v>0.03461792110938802</v>
+        <v>0.04855270847140305</v>
       </c>
       <c r="P23">
-        <v>0.03607702398348041</v>
+        <v>0.04949785713105716</v>
       </c>
       <c r="Q23">
-        <v>184.1112925040191</v>
+        <v>150.766870921624</v>
       </c>
       <c r="R23">
-        <v>1657.001632536172</v>
+        <v>1356.901838294616</v>
       </c>
       <c r="S23">
-        <v>0.007498964160007605</v>
+        <v>0.00785612488654314</v>
       </c>
       <c r="T23">
-        <v>0.008335931287499727</v>
+        <v>0.00882335399358283</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>102.6404036666667</v>
+        <v>84.051186</v>
       </c>
       <c r="H24">
-        <v>307.921211</v>
+        <v>252.153558</v>
       </c>
       <c r="I24">
-        <v>0.2166208691825219</v>
+        <v>0.1618061099757246</v>
       </c>
       <c r="J24">
-        <v>0.231059282808824</v>
+        <v>0.1782572924363359</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.010584</v>
+        <v>0.05066733333333334</v>
       </c>
       <c r="N24">
-        <v>0.031752</v>
+        <v>0.152002</v>
       </c>
       <c r="O24">
-        <v>0.0002042625454197812</v>
+        <v>0.001371448278777914</v>
       </c>
       <c r="P24">
-        <v>0.0002128719609346431</v>
+        <v>0.001398145502131279</v>
       </c>
       <c r="Q24">
-        <v>1.086346032408</v>
+        <v>4.258649458124</v>
       </c>
       <c r="R24">
-        <v>9.777114291672</v>
+        <v>38.327845123116</v>
       </c>
       <c r="S24">
-        <v>4.424753013026736E-05</v>
+        <v>0.0002219087110219574</v>
       </c>
       <c r="T24">
-        <v>4.918604262366665E-05</v>
+        <v>0.0002492296316419631</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>102.6404036666667</v>
+        <v>84.051186</v>
       </c>
       <c r="H25">
-        <v>307.921211</v>
+        <v>252.153558</v>
       </c>
       <c r="I25">
-        <v>0.2166208691825219</v>
+        <v>0.1618061099757246</v>
       </c>
       <c r="J25">
-        <v>0.231059282808824</v>
+        <v>0.1782572924363359</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.2869145</v>
+        <v>2.116331</v>
       </c>
       <c r="N25">
-        <v>12.573829</v>
+        <v>4.232661999999999</v>
       </c>
       <c r="O25">
-        <v>0.1213323090142225</v>
+        <v>0.05728421679861464</v>
       </c>
       <c r="P25">
-        <v>0.08429754458575467</v>
+        <v>0.03893289126025962</v>
       </c>
       <c r="Q25">
-        <v>645.2914420978198</v>
+        <v>177.880130518566</v>
       </c>
       <c r="R25">
-        <v>3871.748652586919</v>
+        <v>1067.280783111396</v>
       </c>
       <c r="S25">
-        <v>0.02628311023858321</v>
+        <v>0.009268936283189894</v>
       </c>
       <c r="T25">
-        <v>0.01947773019452934</v>
+        <v>0.006940071782772166</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>102.6404036666667</v>
+        <v>84.051186</v>
       </c>
       <c r="H26">
-        <v>307.921211</v>
+        <v>252.153558</v>
       </c>
       <c r="I26">
-        <v>0.2166208691825219</v>
+        <v>0.1618061099757246</v>
       </c>
       <c r="J26">
-        <v>0.231059282808824</v>
+        <v>0.1782572924363359</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.024343</v>
+        <v>0.055001</v>
       </c>
       <c r="N26">
-        <v>0.073029</v>
+        <v>0.165003</v>
       </c>
       <c r="O26">
-        <v>0.0004697999946290375</v>
+        <v>0.001488750676591046</v>
       </c>
       <c r="P26">
-        <v>0.0004896014876258519</v>
+        <v>0.001517731360693724</v>
       </c>
       <c r="Q26">
-        <v>2.498575346457666</v>
+        <v>4.622899281186</v>
       </c>
       <c r="R26">
-        <v>22.487178118119</v>
+        <v>41.606093530674</v>
       </c>
       <c r="S26">
-        <v>0.0001017684831784862</v>
+        <v>0.0002408889557029252</v>
       </c>
       <c r="T26">
-        <v>0.0001131269685929627</v>
+        <v>0.0002705466830029792</v>
       </c>
     </row>
   </sheetData>
